--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3675268.706474524</v>
+        <v>3673016.626763317</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>177.2776744015472</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>113.6883373826056</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69.42562816460828</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>94.17933574607815</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>151.7611701629561</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>122.2882635917098</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,16 +1054,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>175.4646268373441</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,16 +1111,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>23.35772589727864</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>142.3478174606662</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>27.59754090161617</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>17.1579442152432</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>150.8956418696081</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.397829669574</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176115</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.3178054178675</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603491</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.01627976944155</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="36">
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>39.52129633183221</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329576</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633909</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1811.579746109089</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>1442.617229168678</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>1084.351530561927</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>698.563277963683</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>287.5773731740755</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609174</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136269</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520491</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794327</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410103</v>
+        <v>2424.744041450756</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.784676410103</v>
+        <v>2071.975386180642</v>
       </c>
       <c r="X2" t="n">
-        <v>2588.318918149023</v>
+        <v>1698.509627919562</v>
       </c>
       <c r="Y2" t="n">
-        <v>2198.179586173211</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>477.4688890257564</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>308.5327060978495</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>308.5327060978495</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>308.5327060978495</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>161.6427585999392</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764919</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242374</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>1424.011591242374</v>
       </c>
       <c r="V4" t="n">
-        <v>1161.740577577775</v>
+        <v>1169.327103036487</v>
       </c>
       <c r="W4" t="n">
-        <v>1161.740577577775</v>
+        <v>879.9099329995263</v>
       </c>
       <c r="X4" t="n">
-        <v>1161.740577577775</v>
+        <v>879.9099329995263</v>
       </c>
       <c r="Y4" t="n">
-        <v>1161.740577577775</v>
+        <v>659.1173538559962</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1155.076184668035</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C5" t="n">
-        <v>786.1136677276232</v>
+        <v>1012.316163281157</v>
       </c>
       <c r="D5" t="n">
-        <v>786.1136677276232</v>
+        <v>654.0504646744064</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276232</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,46 +4650,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>608.7574741064773</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>608.7574741064773</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4726,16 +4726,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1750.057551283095</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1528.290935852621</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1239.188068978264</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V7" t="n">
-        <v>1239.188068978264</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W7" t="n">
-        <v>1239.188068978264</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="X7" t="n">
-        <v>1011.198518080247</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="Y7" t="n">
-        <v>790.405938936717</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3297.729517668143</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3297.729517668143</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3044.19904094198</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2713.136153598409</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2360.367498328294</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>1986.901740067214</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1986.901740067214</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,46 +4887,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>922.6774975139006</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1774.874707816161</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1553.108092385688</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1553.108092385688</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1553.108092385688</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1553.108092385688</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1325.11854148767</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>1104.32596234414</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637304</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444888</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5236,13 +5236,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>699.73118040114</v>
       </c>
     </row>
     <row r="14">
@@ -5270,19 +5270,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5303,22 +5303,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191924</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>923.067041434951</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5419,28 +5419,28 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,58 +5507,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5741,22 +5741,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>426.0170212122717</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,64 +6449,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,16 +6534,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6552,16 +6552,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6716,34 +6716,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,40 +6947,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,52 +7160,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-4.251452755912475e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405077</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440137</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624193</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>127.7255247667956</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.71423459433069</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,13 +26074,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604371</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>656696.2711222265</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>656696.2711222265</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>656696.2711222265</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>656696.2711222265</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>656696.2711222265</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="F2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="G2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="I2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055057</v>
       </c>
     </row>
     <row r="3">
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807355</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90964.01098815694</v>
+      </c>
+      <c r="C4" t="n">
         <v>90964.01098815707</v>
       </c>
-      <c r="C4" t="n">
-        <v>90964.0109881571</v>
-      </c>
       <c r="D4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680577</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680579</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.9762168058</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.9762168058</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-747653.0159060741</v>
+        <v>-747653.0159060747</v>
       </c>
       <c r="C6" t="n">
-        <v>581091.7298215184</v>
+        <v>581091.729821519</v>
       </c>
       <c r="D6" t="n">
-        <v>581091.7298215185</v>
+        <v>581091.7298215188</v>
       </c>
       <c r="E6" t="n">
-        <v>328477.3018574379</v>
+        <v>328442.5639320019</v>
       </c>
       <c r="F6" t="n">
-        <v>653889.7636647932</v>
+        <v>653855.0257393572</v>
       </c>
       <c r="G6" t="n">
-        <v>653889.763664793</v>
+        <v>653855.0257393572</v>
       </c>
       <c r="H6" t="n">
-        <v>653889.7636647931</v>
+        <v>653855.0257393572</v>
       </c>
       <c r="I6" t="n">
-        <v>653889.763664793</v>
+        <v>653855.0257393571</v>
       </c>
       <c r="J6" t="n">
-        <v>436358.5612675155</v>
+        <v>436323.8233420795</v>
       </c>
       <c r="K6" t="n">
-        <v>653889.7636647929</v>
+        <v>653855.0257393575</v>
       </c>
       <c r="L6" t="n">
-        <v>653889.7636647931</v>
+        <v>653855.0257393573</v>
       </c>
       <c r="M6" t="n">
-        <v>568834.7357292806</v>
+        <v>568799.9978038457</v>
       </c>
       <c r="N6" t="n">
-        <v>653889.7636647926</v>
+        <v>653855.0257393573</v>
       </c>
       <c r="O6" t="n">
-        <v>653889.7636647932</v>
+        <v>653855.0257393571</v>
       </c>
       <c r="P6" t="n">
-        <v>653889.7636647928</v>
+        <v>653855.0257393573</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022934</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,22 +26808,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,20 +26966,20 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022934</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>341.3068326973555</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022933</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.3068326973557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022934</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>233.6440512519063</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>272.549601273448</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.406352017329</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>71.84647251295007</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>230.9726715005245</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>259.6421064805519</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>14.30439849409777</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>195.2269274548161</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>222.9250743103414</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>81.59022088655966</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>150.0888768833846</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>38.87338346183384</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>461.1007071927461</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,31 +32081,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>616.9033572954398</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,28 +32546,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33032,31 +33032,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967487</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>587.1221002143859</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.948695672725</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954385</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159405</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.4905264542638</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>318.5044627483017</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>485.5616452121065</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>414.8381222824185</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>444.5258557699415</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121051</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193496</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709305</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
